--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai intro\Pytorch\Segmentare_pytorch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0073543A-B345-4648-A599-B806CFEFEADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AEEDF8-4852-4B19-ABCA-2DC4E251241B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="2604" windowWidth="21516" windowHeight="9648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1056" yWindow="348" windowWidth="21516" windowHeight="9648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Experimente</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>SGD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primul test </t>
+  </si>
+  <si>
+    <t>256x256</t>
+  </si>
+  <si>
+    <t>76 .13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6/0.2/0.2 </t>
   </si>
 </sst>
 </file>
@@ -433,10 +445,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,6 +617,95 @@
         <v>24.03</v>
       </c>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.91390000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.91189999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>91.92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <v>1E-3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.91379999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>91.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.90029999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
